--- a/Замеры - 1вар.xlsx
+++ b/Замеры - 1вар.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totoh\PycharmProjects\Algo1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totoh\PycharmProjects\Algo1_lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7346120C-8CA2-4DCE-9140-16804D628206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2220604B-CAA9-45C9-9E64-B5C518722534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,8 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,43 +494,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.828125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.03125</c:v>
+                  <c:v>1.5625E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0625</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.09375</c:v>
+                  <c:v>7.8125E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.109375</c:v>
+                  <c:v>0.140625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.109375</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.109375</c:v>
+                  <c:v>0.671875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.109375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.109375</c:v>
+                  <c:v>1.390625</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="mmm\-yy">
+                  <c:v>1.453125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.109375</c:v>
+                  <c:v>2.875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.125</c:v>
+                  <c:v>7.78125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.640625</c:v>
+                  <c:v>23.546875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -633,43 +634,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.28125</c:v>
+                  <c:v>1.5625E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28125</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28125</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28125</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28125</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28125</c:v>
+                  <c:v>4.6875E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28125</c:v>
+                  <c:v>9.375E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28125</c:v>
+                  <c:v>0.171875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.296875</c:v>
+                  <c:v>0.34375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.71875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.34375</c:v>
+                  <c:v>1.375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.40625</c:v>
+                  <c:v>2.796875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.546875</c:v>
+                  <c:v>9.453125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -748,6 +749,7 @@
       <c:valAx>
         <c:axId val="1868892271"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1734,7 +1736,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1785,10 +1787,10 @@
         <v>0.328125</v>
       </c>
       <c r="D4">
-        <v>0.828125</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.28125</v>
+        <v>1.5625E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1803,10 +1805,10 @@
         <v>0.484375</v>
       </c>
       <c r="D5">
-        <v>0.96875</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.28125</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1820,10 +1822,10 @@
         <v>0.578125</v>
       </c>
       <c r="D6">
-        <v>1.03125</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="E6">
-        <v>0.28125</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1837,10 +1839,10 @@
         <v>0.609375</v>
       </c>
       <c r="D7">
-        <v>1.0625</v>
+        <v>3.125E-2</v>
       </c>
       <c r="E7">
-        <v>0.28125</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1854,10 +1856,10 @@
         <v>0.625</v>
       </c>
       <c r="D8">
-        <v>1.09375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="E8">
-        <v>0.28125</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1871,10 +1873,10 @@
         <v>0.65625</v>
       </c>
       <c r="D9">
-        <v>1.109375</v>
+        <v>0.140625</v>
       </c>
       <c r="E9">
-        <v>0.28125</v>
+        <v>4.6875E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1888,10 +1890,10 @@
         <v>0.65625</v>
       </c>
       <c r="D10">
-        <v>1.109375</v>
+        <v>0.3125</v>
       </c>
       <c r="E10">
-        <v>0.28125</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1905,10 +1907,10 @@
         <v>0.65625</v>
       </c>
       <c r="D11">
-        <v>1.109375</v>
+        <v>0.671875</v>
       </c>
       <c r="E11">
-        <v>0.28125</v>
+        <v>0.171875</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1922,10 +1924,10 @@
         <v>0.6875</v>
       </c>
       <c r="D12">
-        <v>1.109375</v>
+        <v>1.390625</v>
       </c>
       <c r="E12">
-        <v>0.296875</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1938,11 +1940,11 @@
       <c r="C13">
         <v>0.734375</v>
       </c>
-      <c r="D13">
-        <v>1.109375</v>
+      <c r="D13" s="1">
+        <v>1.453125</v>
       </c>
       <c r="E13">
-        <v>0.3125</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1956,10 +1958,10 @@
         <v>0.890625</v>
       </c>
       <c r="D14">
-        <v>1.109375</v>
+        <v>2.875</v>
       </c>
       <c r="E14">
-        <v>0.34375</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1973,10 +1975,10 @@
         <v>1.234375</v>
       </c>
       <c r="D15">
-        <v>1.125</v>
+        <v>7.78125</v>
       </c>
       <c r="E15">
-        <v>0.40625</v>
+        <v>2.796875</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1990,15 +1992,16 @@
         <v>1.59375</v>
       </c>
       <c r="D16">
-        <v>1.640625</v>
+        <v>23.546875</v>
       </c>
       <c r="E16">
-        <v>0.546875</v>
+        <v>9.453125</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Замеры - 1вар.xlsx
+++ b/Замеры - 1вар.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totoh\PycharmProjects\Algo1_lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2220604B-CAA9-45C9-9E64-B5C518722534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B2DE3E-E732-4401-A10D-B86EA4C2A73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -520,8 +520,8 @@
                 <c:pt idx="8">
                   <c:v>1.390625</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="mmm\-yy">
-                  <c:v>1.453125</c:v>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>1.925</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.875</c:v>
@@ -1736,7 +1736,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1941,7 +1941,7 @@
         <v>0.734375</v>
       </c>
       <c r="D13" s="1">
-        <v>1.453125</v>
+        <v>1.925</v>
       </c>
       <c r="E13">
         <v>0.71875</v>

--- a/Замеры - 1вар.xlsx
+++ b/Замеры - 1вар.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totoh\PycharmProjects\Algo1_lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B2DE3E-E732-4401-A10D-B86EA4C2A73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D435F2-5318-4F3A-8042-6661AB9FFCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,43 +354,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.328125</c:v>
+                  <c:v>0.359375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.484375</c:v>
+                  <c:v>0.515625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.578125</c:v>
+                  <c:v>0.609375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.609375</c:v>
+                  <c:v>0.65625</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65625</c:v>
+                  <c:v>0.703125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65625</c:v>
+                  <c:v>0.703125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65625</c:v>
+                  <c:v>0.734375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6875</c:v>
+                  <c:v>0.734375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.734375</c:v>
+                  <c:v>0.78125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.890625</c:v>
+                  <c:v>0.953125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.234375</c:v>
+                  <c:v>1.34375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.59375</c:v>
+                  <c:v>1.734375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -634,10 +634,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.5625E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.125E-2</c:v>
@@ -646,10 +646,10 @@
                   <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>7.8125E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6875E-2</c:v>
+                  <c:v>0.140625</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9.375E-2</c:v>
@@ -670,7 +670,7 @@
                   <c:v>2.796875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.453125</c:v>
+                  <c:v>7.421875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1736,7 +1736,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1783,14 +1783,16 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f>0.328125</f>
-        <v>0.328125</v>
+        <f>0.359375</f>
+        <v>0.359375</v>
       </c>
       <c r="D4">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.5625E-2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1801,14 +1803,16 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <f>0.484375</f>
-        <v>0.484375</v>
+        <f>0.515625</f>
+        <v>0.515625</v>
       </c>
       <c r="D5">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3.125E-2</v>
+        <f>0.015625</f>
+        <v>1.5625E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1819,7 +1823,8 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0.578125</v>
+        <f>0.609375</f>
+        <v>0.609375</v>
       </c>
       <c r="D6">
         <v>1.5625E-2</v>
@@ -1836,7 +1841,8 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.609375</v>
+        <f>0.65625</f>
+        <v>0.65625</v>
       </c>
       <c r="D7">
         <v>3.125E-2</v>
@@ -1859,7 +1865,8 @@
         <v>7.8125E-2</v>
       </c>
       <c r="E8">
-        <v>3.125E-2</v>
+        <f>0.078125</f>
+        <v>7.8125E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1870,13 +1877,15 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0.65625</v>
+        <f>0.703125</f>
+        <v>0.703125</v>
       </c>
       <c r="D9">
         <v>0.140625</v>
       </c>
       <c r="E9">
-        <v>4.6875E-2</v>
+        <f>0.140625</f>
+        <v>0.140625</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1887,7 +1896,8 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>0.65625</v>
+        <f>0.703125</f>
+        <v>0.703125</v>
       </c>
       <c r="D10">
         <v>0.3125</v>
@@ -1904,7 +1914,8 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>0.65625</v>
+        <f>0.734375</f>
+        <v>0.734375</v>
       </c>
       <c r="D11">
         <v>0.671875</v>
@@ -1921,7 +1932,8 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>0.6875</v>
+        <f>0.734375</f>
+        <v>0.734375</v>
       </c>
       <c r="D12">
         <v>1.390625</v>
@@ -1938,7 +1950,8 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>0.734375</v>
+        <f>0.78125</f>
+        <v>0.78125</v>
       </c>
       <c r="D13" s="1">
         <v>1.925</v>
@@ -1955,7 +1968,8 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>0.890625</v>
+        <f>0.953125</f>
+        <v>0.953125</v>
       </c>
       <c r="D14">
         <v>2.875</v>
@@ -1972,7 +1986,8 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>1.234375</v>
+        <f>1.34375</f>
+        <v>1.34375</v>
       </c>
       <c r="D15">
         <v>7.78125</v>
@@ -1989,13 +2004,15 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>1.59375</v>
+        <f>1.734375</f>
+        <v>1.734375</v>
       </c>
       <c r="D16">
         <v>23.546875</v>
       </c>
       <c r="E16">
-        <v>9.453125</v>
+        <f>7.421875</f>
+        <v>7.421875</v>
       </c>
     </row>
   </sheetData>
